--- a/python/end_of_term/spearman.xlsx
+++ b/python/end_of_term/spearman.xlsx
@@ -423,16 +423,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2088776841606793</v>
+        <v>0.01048492796940493</v>
       </c>
       <c r="D2">
-        <v>-0.141492857010087</v>
+        <v>-0.2713983278234429</v>
       </c>
       <c r="E2">
         <v>0.1802601077816924</v>
       </c>
       <c r="F2">
-        <v>-0.5684725811125217</v>
+        <v>-0.5897771982790272</v>
       </c>
       <c r="G2">
         <v>-0.1469906248018499</v>
@@ -443,19 +443,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2088776841606793</v>
+        <v>0.01048492796940493</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.8166539343009931</v>
+        <v>0.8637096774193549</v>
       </c>
       <c r="E3">
         <v>0.8733870967741936</v>
       </c>
       <c r="F3">
-        <v>-0.2916573971078977</v>
+        <v>-0.2084677419354839</v>
       </c>
       <c r="G3">
         <v>0.9431451612903226</v>
@@ -466,10 +466,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.141492857010087</v>
+        <v>-0.2713983278234429</v>
       </c>
       <c r="C4">
-        <v>0.8166539343009931</v>
+        <v>0.8637096774193549</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -478,7 +478,7 @@
         <v>0.6919354838709677</v>
       </c>
       <c r="F4">
-        <v>0.0006674082313681868</v>
+        <v>0.05967741935483871</v>
       </c>
       <c r="G4">
         <v>0.9423387096774194</v>
@@ -501,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>-0.4451612903225807</v>
+        <v>-0.3887096774193549</v>
       </c>
       <c r="G5">
         <v>0.8064516129032258</v>
@@ -512,22 +512,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.5684725811125217</v>
+        <v>-0.5897771982790272</v>
       </c>
       <c r="C6">
-        <v>-0.2916573971078977</v>
+        <v>-0.2084677419354839</v>
       </c>
       <c r="D6">
-        <v>0.0006674082313681868</v>
+        <v>0.05967741935483871</v>
       </c>
       <c r="E6">
-        <v>-0.4451612903225807</v>
+        <v>-0.3887096774193549</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>-0.1025583982202447</v>
+        <v>-0.03266129032258065</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -547,7 +547,7 @@
         <v>0.8064516129032258</v>
       </c>
       <c r="F7">
-        <v>-0.1025583982202447</v>
+        <v>-0.03266129032258065</v>
       </c>
       <c r="G7">
         <v>1</v>
